--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -37,7 +37,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.227</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.227</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -43,7 +43,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>Property</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-06-25T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Assistant dentaire</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Physicien médical</t>
   </si>
   <si>
     <t/>
@@ -504,7 +510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -551,15 +557,23 @@
         <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -589,26 +603,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -638,42 +652,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -703,82 +717,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -808,26 +822,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -857,42 +871,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -922,26 +936,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -971,26 +985,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -79,7 +79,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>Property</t>
   </si>
@@ -82,6 +82,12 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -125,9 +131,6 @@
   </si>
   <si>
     <t>Physicien médical</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -381,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -487,20 +490,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -522,58 +533,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -595,34 +606,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -644,50 +655,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -709,90 +720,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -814,34 +825,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -863,50 +874,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -928,34 +939,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -977,34 +988,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -43,7 +43,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_G15-Professi" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R94-Professi" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from TRE_R95-UsagerTi" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from TRE_G15-Professi 2" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from TRE_R95-UsagerTi 2" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from TRE_G15-Professi 3" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from TRE_R95-UsagerTi 3" r:id="rId10" sheetId="8"/>
-    <sheet name="Include from TRE_G15-Professi 4" r:id="rId11" sheetId="9"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
+    <sheet name="Include #6" r:id="rId10" sheetId="8"/>
+    <sheet name="Include #7" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -43,7 +43,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -13,14 +13,12 @@
     <sheet name="Include #3" r:id="rId7" sheetId="5"/>
     <sheet name="Include #4" r:id="rId8" sheetId="6"/>
     <sheet name="Include #5" r:id="rId9" sheetId="7"/>
-    <sheet name="Include #6" r:id="rId10" sheetId="8"/>
-    <sheet name="Include #7" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -67,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -239,12 +237,6 @@
   </si>
   <si>
     <t>Psychomotricien</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Conseiller en génétique</t>
   </si>
   <si>
     <t>98</t>
@@ -862,7 +854,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -906,115 +898,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s" s="2">
+      <c r="B7" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
+++ b/ig/main/ValueSet-JDV-J166-Profession-EPARS.xlsx
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
